--- a/resource/new.xlsx
+++ b/resource/new.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
